--- a/imageCreationExcel/back/109/109_11.xlsx
+++ b/imageCreationExcel/back/109/109_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.17890051055115</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.009205556061914</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8434229376194692</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_B_brightness11.179_contrast1.009_sharpness0.843.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8662615945767241</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1773423297057125</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.23088272494613</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_contrast0.866_sharpness0.177_equalization13.231.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9399093899585163</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.080320631255112</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>24.60564130017392</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_S_contrast0.94_gamma1.08_equalization24.606.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.067406301017681</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7946257784725393</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10.24625283102771</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_0_gamma1.067_sharpness0.795_equalization10.246.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.178404159951849</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6362992237262439</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14.59514791425556</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast1.178_gamma0.636_equalization14.595.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.03163812138147</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.091685817063923</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.005599523467627045</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_brightness14.032_contrast1.092_sharpness0.006.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25.80816568473879</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9536099970182916</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2168505155372105</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_brightness25.808_gamma0.954_sharpness0.217.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,16 +780,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8703234788651278</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6753235397124705</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18.84672110980701</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_1_contrast0.87_gamma0.675_equalization18.847.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21.64452949470032</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.149233011600155</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.524239685624031</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_P_brightness21.645_contrast1.149_sharpness0.524.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27.56655004988478</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9040460101396915</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.3034923381298468</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_brightness27.567_gamma0.904_sharpness0.303.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,24 +906,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8970119930464189</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5053976125316434</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.6489192660821264</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_3_contrast0.897_gamma0.505_sharpness0.649.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.171949256951259</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8141025084152769</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2177129737937407</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_contrast1.172_gamma0.814_sharpness0.218.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.34689872390563</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.194840551893922</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9601784709892643</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_T_brightness14.347_contrast1.195_gamma0.96.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10.67309766540825</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8635158142192978</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9685586640093774</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_S_brightness10.673_contrast0.864_gamma0.969.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.134504267321031</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7657464325504099</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8862981680960961</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_3_contrast1.135_gamma0.766_sharpness0.886.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.87751357213462</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.141138828878652</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.04196651472810275</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_8_brightness23.878_contrast1.141_sharpness0.042.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9920903181817567</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7492311904771098</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1469961146163007</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_7_contrast0.992_gamma0.749_sharpness0.147.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8014961077908921</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5578261723392486</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9.300262643834946</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_3_contrast0.801_sharpness0.558_equalization9.3.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.358446373966834</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8692369689515115</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.3515348117561949</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_C_brightness4.358_gamma0.869_sharpness0.352.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.163952540793306</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7574905429572212</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>22.48881906872576</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_0_contrast1.164_sharpness0.757_equalization22.489.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.082715174610194</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5883712675435637</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2774145517113164</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_S_brightness1.083_gamma0.588_sharpness0.277.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.988977107516401</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.4457767695087398</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.344500318614116</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_3_gamma0.989_sharpness0.446_equalization4.345.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.03951025909766</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7943821153576576</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21.67378051538125</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_contrast1.04_gamma0.794_equalization21.674.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24.08135228896839</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.037590320234157</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.987050768039149</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_brightness24.081_contrast1.038_sharpness0.987.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9295856265313778</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7472845035823232</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.63127237747209</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_gamma0.93_sharpness0.747_equalization15.631.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9980831684193543</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0675945845106799</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.36947970546069</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_contrast0.998_sharpness0.068_equalization20.369.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8178810618411745</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.4342908728716837</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16.20937833673811</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_gamma0.818_sharpness0.434_equalization16.209.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.813400858983423</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8640039650656994</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.440969147883283</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_C_brightness0.813_contrast0.864_sharpness0.441.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.074633313798899</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6318119771278639</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16.37446884357387</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_gamma1.075_sharpness0.632_equalization16.374.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28.68844625432088</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.143562241439259</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.8259020925922609</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_C_brightness28.688_contrast1.144_sharpness0.826.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>23.33655713520221</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.176679120314145</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.01285804361497384</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_S_brightness23.337_contrast1.177_sharpness0.013.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5913789086903714</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.2023945439867328</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>29.64781918412005</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_gamma0.591_sharpness0.202_equalization29.648.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23.34280561661732</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.190011713815566</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.7540692502888339</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_C_brightness23.343_contrast1.19_sharpness0.754.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.068430440166925</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7438252531626116</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>16.6150067693818</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_S_contrast1.068_sharpness0.744_equalization16.615.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.059773653174282</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8779748571083945</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3148937602915788</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_2_contrast1.06_gamma0.878_sharpness0.315.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9450036264220413</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.3784768894417103</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>22.84488399652502</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_7_contrast0.945_sharpness0.378_equalization22.845.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5128052777650309</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6686980224266128</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.502294802798774</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_gamma0.513_sharpness0.669_equalization6.502.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.012030538167054</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.2285197772293669</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>30.43009110980948</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_contrast1.012_sharpness0.229_equalization30.43.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.629045714884564</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5053869794218188</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4791981412289014</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_brightness2.629_gamma0.505_sharpness0.479.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8206012532426884</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.4780936329588636</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7.011783516907855</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_contrast0.821_sharpness0.478_equalization7.012.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>26.92201557635019</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.828986660586716</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.2586661642441899</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_brightness26.922_gamma0.829_sharpness0.259.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9073971919048796</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6041720261636124</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>11.82046490609915</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_contrast0.907_gamma0.604_equalization11.82.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7.983093635699507</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9631440869274069</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.6300416698305293</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness7.983_contrast0.963_gamma0.63.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24.69597050151837</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6373513750830385</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6736635552381344</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_brightness24.696_gamma0.637_sharpness0.674.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9771408855675916</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6906936394519273</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12.49938790973663</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_2_contrast0.977_sharpness0.691_equalization12.499.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9686449982409562</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8845411592237458</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.3805243292769651</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_8_brightness0.969_contrast0.885_sharpness0.381.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16.49175261114023</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8259796147460964</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9964064845625692</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_brightness16.492_contrast0.826_gamma0.996.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9.358236495651202</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6018920162386872</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4474127541527472</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_brightness9.358_gamma0.602_sharpness0.447.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
